--- a/data/trans_dic/P12B1_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P12B1_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que requiere cuidados especiales &lt;16 años</t>
+          <t>Población que requiere cuidados especiales &lt;16 años (tasa de respuesta: 99,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,7 +710,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,27%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,47 +720,77 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,8%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>0,95%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>23,53%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>12,89%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,87%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>15,05%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>14,35%</t>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 52,14</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 67,46</t>
+          <t>0,0; 4,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>0,0; 4,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,08</t>
+          <t>0,0; 4,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 64,29</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 45,22</t>
+          <t>0,0; 2,95</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 4,31</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 46,98</t>
+          <t>0,0; 4,05</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,82</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,45</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,33</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,02</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58,22%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>8,55%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>46,54%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>49,62%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0,99%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,36; 50,23</t>
+          <t>0,46; 4,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,68; 95,0</t>
+          <t>1,19; 15,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 72,35</t>
+          <t>0,33; 3,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>2,45; 25,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 61,7</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,01; 84,75</t>
+          <t>0,0; 2,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,1; 52,09</t>
+          <t>0,0; 5,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,03; 81,15</t>
+          <t>2,08; 8,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,4; 55,01</t>
+          <t>0,43; 4,13</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 53,78</t>
+          <t>0,62; 6,22</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 2,74</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 9,19</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>0,39; 2,68</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>3,16; 16,18</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 2,01</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 2,91</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>56,15%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>59,67%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>59,85%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,96%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>51,43%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>51,21%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,34%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>54,4%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>55,83%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>43,54%</t>
+          <t>3,97%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>5,57%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 93,04</t>
+          <t>0,0; 13,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,26; 90,49</t>
+          <t>0,61; 11,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,41; 90,56</t>
+          <t>0,81; 14,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,58</t>
+          <t>1,57; 6,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,2; 47,22</t>
+          <t>0,0; 7,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,25; 70,35</t>
+          <t>3,33; 16,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,3; 72,9</t>
+          <t>0,66; 3,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,06; 78,39</t>
+          <t>2,33; 6,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,45; 72,57</t>
+          <t>1,73; 5,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,18; 73,76</t>
+          <t>2,94; 9,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35,67; 82,0</t>
+          <t>0,91; 5,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,73; 71,79</t>
+          <t>1,96; 7,64</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 7,02</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 7,17</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1,8; 8,14</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 6,7</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 5,17</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>3,18; 10,29</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>11,64%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,15%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,83%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>1,02%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,97</t>
+          <t>0,0; 1,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,97; 27,55</t>
+          <t>0,29; 2,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 32,63</t>
+          <t>0,32; 3,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,21</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,23</t>
+          <t>0,0; 4,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,11</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,17</t>
+          <t>0,0; 2,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,33</t>
+          <t>0,0; 2,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 20,78</t>
+          <t>0,0; 1,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 21,7</t>
+          <t>0,32; 5,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 17,83</t>
+          <t>0,0; 2,85</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 22,77</t>
+          <t>0,0; 3,66</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 1,92</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 1,98</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 1,83</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 2,78</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 3,07</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>0,26; 2,3</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1505,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1231,47 +1520,77 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>11,49%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2,32%</t>
-        </is>
-      </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>9,14%</t>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,14</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0,0; 3,18</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>0,0; 5,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,57; 29,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>0,0; 4,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>0,49; 4,32</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,5; 22,7</t>
+          <t>0,0; 3,45</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,06</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,38</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 2,82</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 3,14</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1710,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1371,47 +1720,77 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,86%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>3,91%</t>
-        </is>
-      </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>5,43%</t>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>0,69%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>0,99%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,87</t>
+          <t>0,0; 7,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,18</t>
+          <t>0,0; 2,49</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0,0; 4,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0,0; 5,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>0,0; 5,39</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,66</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,09</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,34</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,36</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,88%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,49%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,17; 29,32</t>
+          <t>0,24; 3,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,31; 39,37</t>
+          <t>0,88; 3,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,35; 37,57</t>
+          <t>0,55; 3,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,27; 22,54</t>
+          <t>1,32; 6,6</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,06; 11,37</t>
+          <t>0,4; 2,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,05; 16,93</t>
+          <t>1,24; 4,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,02; 12,45</t>
+          <t>0,32; 1,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,36; 23,05</t>
+          <t>0,64; 1,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,36; 16,63</t>
+          <t>0,41; 1,3</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,45; 23,83</t>
+          <t>1,38; 3,08</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,06; 22,74</t>
+          <t>0,81; 2,38</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,62; 18,93</t>
+          <t>0,82; 2,32</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 1,85</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 2,51</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,61; 1,92</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1,58; 4,05</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 1,81</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 2,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que requiere cuidados especiales &lt;16 años (tasa de respuesta: 99,06%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3436</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4269</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2138</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2460</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5573</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>6729</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 17956</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21688</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1826</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10894</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 13694</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1612</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1400</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0; 18950</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>0; 22626</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2646</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2228</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8558</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>26500</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7272</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>48429</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5060</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4243</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4437</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22082</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>13618</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>30743</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>11709</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>70511</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2601; 24955</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6713; 86277</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1928; 19444</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13871; 144144</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 18736</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 15125</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 26052</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>10262; 44342</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>203; 1951</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>243; 2425</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4990; 29778</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10547; 98414</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>4354; 29541</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>33516; 171457</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>213; 1951</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>249; 2381</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17289</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20065</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25085</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22464</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>921</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>3812</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11944</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>29124</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>21504</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>35445</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>1363</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>1836</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>29233</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>49189</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>46590</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>57910</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>2284</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>5648</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 91431</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4130; 81420</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5459; 98210</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10364; 42994</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4425</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1838; 8953</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4717; 26968</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16665; 47083</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12319; 37445</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20177; 65436</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>488; 2955</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>904; 3533</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7678; 98004</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>28522; 100230</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>25017; 113289</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>36422; 90275</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>913; 5896</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>3227; 10441</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2264</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5944</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>8545</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2724</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>800</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5775</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5053</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1398</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>10549</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>8040</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>10998</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>9943</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>13273</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1227</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1021</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 11508</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1871; 14330</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2029; 22711</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 14436</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2643</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1917</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 20463</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0; 19864</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6994</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2087; 38535</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1486</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1815</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2145; 25526</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>4002; 26055</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>3279; 23757</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>4288; 36343</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>423; 3397</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>262; 2279</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2112</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2112</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3367</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>782</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10336</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1415</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2211</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 20435</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>239; 2105</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1488</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10640</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>0; 13653</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>249; 2631</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>227; 2652</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>8477</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2711</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>689</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>8477</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>2711</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 37152</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13896</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2060</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2324</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3437</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0; 44839</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13938</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3687</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2401</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>30223</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>64422</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>40902</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>80598</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2803</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>5832</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>22779</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>40558</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>27339</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>73903</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3819</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>53002</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>104980</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>68242</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>154501</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>7069</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>9651</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>8438; 107780</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>30152; 136025</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>19010; 106317</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>44631; 223136</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1201; 7125</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3388; 10951</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>11361; 43369</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>23205; 62626</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>14916; 46806</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>48537; 108610</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>2452; 7230</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>2211; 6261</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>29513; 130506</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>65498; 177343</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>43025; 135024</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>108848; 279333</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>4297; 10959</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>6549; 15303</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
